--- a/purple_green_orange/Condition_File_purple_green_orange.xlsx
+++ b/purple_green_orange/Condition_File_purple_green_orange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/purple_green_orange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E8E5D-CF0B-2A47-83B4-D2BB449FF4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40830C5E-1CF9-154F-8CD6-F17CAA3566CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1462">
   <si>
     <t>Jar1</t>
   </si>
@@ -2777,9 +2777,6 @@
     <t>./Stimuli/reg_trials/rand_marblejar_107.jpg</t>
   </si>
   <si>
-    <t>['green', 'green', 'darkorange', 'green', 'darkorange', 'green', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/rand_marblejar_108.jpg</t>
   </si>
   <si>
@@ -3146,9 +3143,6 @@
     <t>./Stimuli/reg_trials/marblejar3_right_different_7.jpg</t>
   </si>
   <si>
-    <t>./Stimuli/reg_trials/marblejar3_right_same_1.jpg</t>
-  </si>
-  <si>
     <t>./Stimuli/reg_trials/marblejar3_right_same_2.jpg</t>
   </si>
   <si>
@@ -3803,619 +3797,631 @@
     <t>./Stimuli/reg_trials/marblejar3_left_same_110.jpg</t>
   </si>
   <si>
-    <t>['purple', 'purple', 'green', 'green', 'green', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'green', 'darkorange', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'darkorange', 'purple', 'purple', 'green', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'darkorange', 'green', 'darkorange', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'darkorange', 'green', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'green', 'purple', 'darkorange', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'green', 'purple', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'green', 'green', 'green', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'darkorange', 'purple', 'green', 'green', 'darkorange', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
     <t>['purple', 'darkorange', 'purple', 'green', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
   </si>
   <si>
-    <t>['purple', 'purple', 'green', 'purple', 'green', 'green', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'green', 'darkorange', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'purple', 'darkorange', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'purple', 'green', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'green', 'purple', 'green', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'darkorange', 'darkorange', 'green', 'green', 'green', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'darkorange', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'green', 'green', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'purple', 'purple', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'purple', 'green', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'darkorange', 'darkorange', 'purple', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'green', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'green', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'darkorange', 'purple', 'green', 'purple', 'darkorange', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'green', 'purple', 'purple', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'darkorange', 'darkorange', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'green', 'darkorange', 'purple', 'green', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'purple', 'green', 'darkorange', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'green', 'purple', 'darkorange', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'green', 'green', 'darkorange', 'green', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'green', 'purple', 'darkorange', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'green', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'purple', 'green', 'darkorange', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'darkorange', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'purple', 'green', 'purple', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'green', 'darkorange', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'green', 'purple', 'darkorange', 'green', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'green', 'green', 'green', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'green', 'green', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'purple', 'darkorange', 'darkorange', 'green', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'green', 'purple', 'darkorange', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
     <t>['green', 'darkorange', 'purple', 'purple', 'green', 'purple', 'purple', 'green', 'darkorange']</t>
   </si>
   <si>
-    <t>['green', 'green', 'purple', 'darkorange', 'purple', 'green', 'green', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'green', 'green', 'green', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
     <t>['purple', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'purple']</t>
   </si>
   <si>
     <t>['purple', 'green', 'purple', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple']</t>
   </si>
   <si>
-    <t>['purple', 'darkorange', 'green', 'purple', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'green', 'green', 'purple', 'darkorange', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'darkorange', 'green', 'darkorange', 'darkorange', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'darkorange', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'green', 'darkorange', 'green', 'darkorange', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'green', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'green', 'purple', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'purple', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'purple', 'darkorange', 'green', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'green', 'purple', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'green', 'darkorange', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'green', 'green', 'green', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'purple', 'purple', 'green', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'darkorange', 'green', 'green', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'green', 'darkorange', 'darkorange', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'purple', 'green', 'green', 'purple', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'green', 'darkorange', 'darkorange', 'darkorange', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'green', 'purple', 'green', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'darkorange', 'green', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'green', 'purple', 'green', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'green', 'purple', 'green', 'purple', 'purple', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'green', 'purple', 'darkorange', 'green', 'purple', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'green', 'darkorange', 'purple', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'green', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'green', 'darkorange', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'green', 'darkorange', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'purple', 'darkorange', 'darkorange', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'green', 'purple', 'green', 'green', 'green', 'darkorange', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'darkorange', 'purple', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'purple', 'green', 'darkorange', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'purple', 'darkorange', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
     <t>['purple', 'purple', 'green', 'purple', 'green', 'green', 'purple', 'green', 'green']</t>
   </si>
   <si>
-    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'darkorange', 'purple']</t>
-  </si>
-  <si>
     <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
   </si>
   <si>
-    <t>['darkorange', 'green', 'darkorange', 'green', 'green', 'purple', 'green', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'green', 'green', 'purple', 'green', 'darkorange', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'green', 'green', 'green', 'darkorange', 'purple', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'purple', 'green', 'green', 'purple', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'darkorange', 'darkorange', 'green', 'darkorange', 'darkorange', 'green']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'green', 'purple', 'darkorange', 'purple', 'purple', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'darkorange', 'green', 'purple', 'green', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green', 'darkorange', 'green', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'green', 'darkorange', 'darkorange', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'green', 'darkorange', 'darkorange', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'darkorange', 'darkorange', 'green', 'purple', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'green', 'darkorange', 'green', 'darkorange', 'darkorange', 'green', 'green']</t>
-  </si>
-  <si>
-    <t>['darkorange', 'purple', 'purple', 'green', 'darkorange', 'green', 'purple', 'purple', 'green']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'green', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['green', 'darkorange', 'purple', 'green', 'purple', 'purple', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'darkorange', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green', 'green', 'green']</t>
-  </si>
-  <si>
     <t>['purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'purple']</t>
   </si>
   <si>
-    <t>['darkorange', 'darkorange', 'purple', 'green', 'purple', 'darkorange', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'purple', 'darkorange', 'purple', 'darkorange', 'green', 'purple', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
-    <t>['purple', 'purple', 'purple', 'green', 'darkorange', 'green', 'purple', 'purple', 'purple']</t>
-  </si>
-  <si>
-    <t>['green', 'green', 'darkorange', 'purple', 'green', 'darkorange', 'purple', 'green', 'darkorange']</t>
+    <t>['purple', 'purple', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'green', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'green', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'darkorange', 'green', 'purple', 'green', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'purple', 'green', 'green', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'darkorange', 'darkorange', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'purple', 'darkorange', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'purple', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'purple', 'green', 'green', 'purple', 'purple', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'purple', 'purple', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'green', 'darkorange', 'purple', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'green', 'green', 'darkorange', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'darkorange', 'green', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'darkorange', 'purple', 'green', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'green', 'green', 'darkorange', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'green', 'green', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'darkorange', 'purple', 'darkorange', 'purple', 'green', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'darkorange', 'purple', 'green', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'green', 'green', 'darkorange', 'darkorange', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'green', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'green', 'green', 'darkorange', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'purple', 'purple', 'purple', 'darkorange', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'green', 'darkorange', 'darkorange', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'darkorange', 'purple', 'green', 'darkorange', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'darkorange', 'purple', 'green', 'purple', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'green', 'green', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'purple', 'green', 'green', 'green', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'green', 'darkorange', 'green', 'purple', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'darkorange', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'green', 'green', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'purple', 'darkorange', 'green', 'darkorange', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'purple', 'darkorange', 'purple', 'green', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'green', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'green', 'purple', 'green', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'green', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'purple', 'darkorange', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'green', 'darkorange', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'green', 'green', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'darkorange', 'green', 'purple', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'green', 'purple', 'purple', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'darkorange', 'green', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'purple', 'purple', 'green', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'darkorange', 'purple', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'darkorange', 'purple', 'green', 'green', 'darkorange', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'purple', 'purple', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'purple', 'purple', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'green', 'green', 'darkorange', 'green', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'green', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'green', 'purple', 'darkorange', 'purple', 'green', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'green', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'green', 'purple', 'darkorange', 'green', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'green', 'darkorange', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'darkorange', 'green', 'darkorange', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'darkorange', 'green', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'purple', 'green', 'purple', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'green', 'purple', 'darkorange', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'green', 'green', 'green', 'darkorange', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'darkorange', 'purple', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'darkorange', 'green', 'darkorange', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'green', 'darkorange', 'green', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'darkorange', 'darkorange', 'purple', 'green', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'green', 'purple', 'green', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'darkorange', 'green', 'green', 'darkorange', 'purple', 'darkorange', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'purple', 'green', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'darkorange', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'green', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'green', 'green', 'green', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'darkorange', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'darkorange', 'purple', 'darkorange', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'darkorange', 'green', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'green', 'darkorange', 'green', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'green', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'purple', 'green', 'green', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'darkorange', 'darkorange', 'purple', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'darkorange', 'purple', 'green', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'green', 'green', 'purple', 'green', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'green', 'purple', 'darkorange', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'green', 'purple', 'purple', 'darkorange', 'darkorange', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'darkorange', 'purple', 'green', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'green', 'purple', 'purple', 'purple', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'darkorange', 'purple', 'green', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'darkorange', 'green', 'darkorange', 'green', 'green', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'green', 'purple', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'green', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'green', 'purple', 'purple', 'green', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'green', 'darkorange', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'green', 'green', 'green', 'green', 'purple', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'darkorange', 'green', 'green', 'darkorange', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'green', 'purple', 'green', 'darkorange', 'green', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'darkorange', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'green', 'purple', 'green', 'purple', 'green', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'green', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'green', 'green', 'purple', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'purple', 'purple', 'green', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'purple', 'green', 'darkorange', 'purple', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['darkorange', 'purple', 'purple', 'green', 'purple', 'green', 'green', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'purple', 'green', 'purple', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'green', 'purple', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'purple', 'darkorange', 'green', 'purple', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'darkorange', 'green', 'purple', 'green', 'green', 'purple', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'darkorange', 'darkorange', 'green', 'green', 'green', 'purple']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'purple', 'darkorange', 'purple', 'green', 'darkorange', 'darkorange', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'green', 'purple', 'purple', 'green', 'purple', 'green', 'purple', 'purple']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'green', 'darkorange', 'green', 'green', 'purple', 'purple', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'purple', 'darkorange', 'purple', 'purple', 'darkorange', 'purple', 'darkorange', 'green']</t>
+  </si>
+  <si>
+    <t>['green', 'purple', 'purple', 'darkorange', 'purple', 'purple', 'purple', 'green', 'green']</t>
   </si>
 </sst>
 </file>
@@ -4813,8 +4819,8 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B288" sqref="B288"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C189" sqref="C189:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7954,7 +7960,7 @@
         <v>805</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>363</v>
@@ -7978,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>13</v>
@@ -7995,7 +8001,7 @@
         <v>806</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>365</v>
@@ -8019,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>13</v>
@@ -8036,7 +8042,7 @@
         <v>807</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>367</v>
@@ -8060,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1036</v>
+        <v>367</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>17</v>
@@ -8077,7 +8083,7 @@
         <v>808</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>368</v>
@@ -8101,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>17</v>
@@ -8118,7 +8124,7 @@
         <v>809</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>370</v>
@@ -8142,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>17</v>
@@ -8159,7 +8165,7 @@
         <v>810</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>372</v>
@@ -8183,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>17</v>
@@ -8200,7 +8206,7 @@
         <v>811</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>306</v>
+        <v>1259</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>374</v>
@@ -8224,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>13</v>
@@ -8241,7 +8247,7 @@
         <v>812</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>375</v>
@@ -8265,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>17</v>
@@ -8282,7 +8288,7 @@
         <v>813</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>377</v>
@@ -8306,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>13</v>
@@ -8323,7 +8329,7 @@
         <v>814</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>379</v>
@@ -8347,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>13</v>
@@ -8364,7 +8370,7 @@
         <v>815</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>381</v>
@@ -8388,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>17</v>
@@ -8405,7 +8411,7 @@
         <v>816</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>383</v>
@@ -8429,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>17</v>
@@ -8446,7 +8452,7 @@
         <v>817</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>385</v>
@@ -8470,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>17</v>
@@ -8487,7 +8493,7 @@
         <v>818</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>508</v>
+        <v>1272</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>387</v>
@@ -8511,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>13</v>
@@ -8528,7 +8534,7 @@
         <v>819</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>389</v>
@@ -8552,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>13</v>
@@ -8569,7 +8575,7 @@
         <v>820</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>391</v>
@@ -8593,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>13</v>
@@ -8610,7 +8616,7 @@
         <v>821</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>393</v>
@@ -8634,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>17</v>
@@ -8651,7 +8657,7 @@
         <v>822</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>395</v>
@@ -8675,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>17</v>
@@ -8692,7 +8698,7 @@
         <v>823</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>397</v>
@@ -8716,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>13</v>
@@ -8733,7 +8739,7 @@
         <v>824</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>399</v>
@@ -8757,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>13</v>
@@ -8774,7 +8780,7 @@
         <v>825</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>401</v>
@@ -8798,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>13</v>
@@ -8815,7 +8821,7 @@
         <v>826</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>403</v>
@@ -8839,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>17</v>
@@ -8856,7 +8862,7 @@
         <v>827</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>405</v>
@@ -8880,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>17</v>
@@ -8897,7 +8903,7 @@
         <v>828</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>407</v>
@@ -8921,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>13</v>
@@ -8938,7 +8944,7 @@
         <v>829</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>409</v>
@@ -8962,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>13</v>
@@ -8979,7 +8985,7 @@
         <v>830</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>411</v>
@@ -9003,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>17</v>
@@ -9020,7 +9026,7 @@
         <v>831</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>413</v>
@@ -9044,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>13</v>
@@ -9061,7 +9067,7 @@
         <v>832</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>415</v>
@@ -9085,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>13</v>
@@ -9102,7 +9108,7 @@
         <v>833</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1281</v>
+        <v>506</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>417</v>
@@ -9126,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>17</v>
@@ -9143,7 +9149,7 @@
         <v>834</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>419</v>
@@ -9167,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>17</v>
@@ -9184,7 +9190,7 @@
         <v>835</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>421</v>
@@ -9208,7 +9214,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>13</v>
@@ -9225,7 +9231,7 @@
         <v>836</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>423</v>
@@ -9249,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>17</v>
@@ -9266,7 +9272,7 @@
         <v>837</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>425</v>
@@ -9290,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>17</v>
@@ -9307,7 +9313,7 @@
         <v>838</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>427</v>
@@ -9331,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>17</v>
@@ -9348,7 +9354,7 @@
         <v>839</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>429</v>
@@ -9372,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>17</v>
@@ -9389,7 +9395,7 @@
         <v>840</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>431</v>
@@ -9413,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>13</v>
@@ -9430,7 +9436,7 @@
         <v>841</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>433</v>
@@ -9454,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>17</v>
@@ -9471,7 +9477,7 @@
         <v>842</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>435</v>
@@ -9495,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>13</v>
@@ -9512,7 +9518,7 @@
         <v>843</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>437</v>
@@ -9536,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>17</v>
@@ -9553,7 +9559,7 @@
         <v>844</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>439</v>
@@ -9577,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>13</v>
@@ -9594,7 +9600,7 @@
         <v>845</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>625</v>
+        <v>1298</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>441</v>
@@ -9618,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>13</v>
@@ -9635,7 +9641,7 @@
         <v>846</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1293</v>
+        <v>268</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>443</v>
@@ -9659,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>13</v>
@@ -9676,7 +9682,7 @@
         <v>847</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>445</v>
@@ -9700,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>17</v>
@@ -9717,7 +9723,7 @@
         <v>848</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>447</v>
@@ -9741,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>13</v>
@@ -9758,7 +9764,7 @@
         <v>849</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>449</v>
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>17</v>
@@ -9799,7 +9805,7 @@
         <v>850</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>451</v>
@@ -9823,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>13</v>
@@ -9840,7 +9846,7 @@
         <v>851</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>453</v>
@@ -9864,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>17</v>
@@ -9881,7 +9887,7 @@
         <v>852</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1299</v>
+        <v>404</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>455</v>
@@ -9905,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>17</v>
@@ -9922,7 +9928,7 @@
         <v>853</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>457</v>
@@ -9946,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>17</v>
@@ -9963,7 +9969,7 @@
         <v>854</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>459</v>
@@ -9987,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>17</v>
@@ -10004,7 +10010,7 @@
         <v>855</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>461</v>
@@ -10028,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>17</v>
@@ -10045,7 +10051,7 @@
         <v>856</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>463</v>
@@ -10069,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>13</v>
@@ -10086,7 +10092,7 @@
         <v>857</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>465</v>
@@ -10110,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>17</v>
@@ -10127,7 +10133,7 @@
         <v>858</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>467</v>
@@ -10151,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>13</v>
@@ -10168,7 +10174,7 @@
         <v>859</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>913</v>
+        <v>1310</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>469</v>
@@ -10192,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>13</v>
@@ -10209,7 +10215,7 @@
         <v>860</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>470</v>
@@ -10233,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>13</v>
@@ -10250,7 +10256,7 @@
         <v>861</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>472</v>
@@ -10274,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>17</v>
@@ -10291,7 +10297,7 @@
         <v>862</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>474</v>
@@ -10315,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>13</v>
@@ -10332,7 +10338,7 @@
         <v>863</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>476</v>
@@ -10356,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>13</v>
@@ -10373,7 +10379,7 @@
         <v>864</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>478</v>
@@ -10397,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>17</v>
@@ -10414,7 +10420,7 @@
         <v>865</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>788</v>
+        <v>1316</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>480</v>
@@ -10438,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>13</v>
@@ -10455,7 +10461,7 @@
         <v>866</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>482</v>
@@ -10479,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>17</v>
@@ -10496,7 +10502,7 @@
         <v>867</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>744</v>
+        <v>1318</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>484</v>
@@ -10520,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>17</v>
@@ -10537,7 +10543,7 @@
         <v>868</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1312</v>
+        <v>1319</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>486</v>
@@ -10561,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>17</v>
@@ -10578,7 +10584,7 @@
         <v>869</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1313</v>
+        <v>1320</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>488</v>
@@ -10602,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>13</v>
@@ -10619,7 +10625,7 @@
         <v>870</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>490</v>
@@ -10643,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>17</v>
@@ -10660,7 +10666,7 @@
         <v>871</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>748</v>
+        <v>329</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>492</v>
@@ -10684,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>17</v>
@@ -10701,7 +10707,7 @@
         <v>872</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>494</v>
@@ -10725,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>17</v>
@@ -10742,7 +10748,7 @@
         <v>873</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1316</v>
+        <v>1253</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>495</v>
@@ -10766,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>13</v>
@@ -10783,7 +10789,7 @@
         <v>874</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>497</v>
@@ -10807,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>13</v>
@@ -10824,7 +10830,7 @@
         <v>875</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>499</v>
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>17</v>
@@ -10865,7 +10871,7 @@
         <v>876</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>501</v>
@@ -10889,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>17</v>
@@ -10906,7 +10912,7 @@
         <v>877</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>503</v>
@@ -10930,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>13</v>
@@ -10947,7 +10953,7 @@
         <v>878</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>505</v>
@@ -10971,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>17</v>
@@ -10988,7 +10994,7 @@
         <v>879</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>507</v>
@@ -11012,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>13</v>
@@ -11029,7 +11035,7 @@
         <v>880</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>609</v>
+        <v>1329</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>509</v>
@@ -11053,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>17</v>
@@ -11070,7 +11076,7 @@
         <v>881</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>511</v>
@@ -11094,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>17</v>
@@ -11111,7 +11117,7 @@
         <v>882</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>513</v>
@@ -11135,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>13</v>
@@ -11152,7 +11158,7 @@
         <v>883</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>515</v>
@@ -11176,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>17</v>
@@ -11193,7 +11199,7 @@
         <v>884</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>517</v>
@@ -11217,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K156" s="4" t="s">
         <v>17</v>
@@ -11234,7 +11240,7 @@
         <v>885</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>519</v>
@@ -11258,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>17</v>
@@ -11275,7 +11281,7 @@
         <v>886</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1328</v>
+        <v>1256</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>521</v>
@@ -11299,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="K158" s="4" t="s">
         <v>17</v>
@@ -11316,7 +11322,7 @@
         <v>887</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>523</v>
@@ -11340,7 +11346,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>17</v>
@@ -11357,7 +11363,7 @@
         <v>888</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>166</v>
+        <v>1336</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>525</v>
@@ -11381,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K160" s="4" t="s">
         <v>17</v>
@@ -11398,7 +11404,7 @@
         <v>889</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1330</v>
+        <v>1337</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>527</v>
@@ -11422,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="K161" s="4" t="s">
         <v>13</v>
@@ -11439,7 +11445,7 @@
         <v>890</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1331</v>
+        <v>1338</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>529</v>
@@ -11463,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="K162" s="4" t="s">
         <v>17</v>
@@ -11480,7 +11486,7 @@
         <v>891</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>531</v>
@@ -11504,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="K163" s="4" t="s">
         <v>13</v>
@@ -11521,7 +11527,7 @@
         <v>892</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>516</v>
+        <v>1340</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>533</v>
@@ -11545,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K164" s="4" t="s">
         <v>13</v>
@@ -11562,7 +11568,7 @@
         <v>893</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>535</v>
@@ -11586,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="K165" s="4" t="s">
         <v>17</v>
@@ -11603,7 +11609,7 @@
         <v>894</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>537</v>
@@ -11627,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K166" s="4" t="s">
         <v>17</v>
@@ -11644,7 +11650,7 @@
         <v>895</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>539</v>
@@ -11668,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K167" s="4" t="s">
         <v>13</v>
@@ -11685,7 +11691,7 @@
         <v>896</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>541</v>
@@ -11709,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="K168" s="4" t="s">
         <v>17</v>
@@ -11726,7 +11732,7 @@
         <v>897</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>543</v>
@@ -11750,7 +11756,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="K169" s="4" t="s">
         <v>17</v>
@@ -11767,7 +11773,7 @@
         <v>898</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>544</v>
@@ -11791,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="K170" s="4" t="s">
         <v>13</v>
@@ -11808,7 +11814,7 @@
         <v>899</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1315</v>
+        <v>1347</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>546</v>
@@ -11832,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="K171" s="4" t="s">
         <v>17</v>
@@ -11849,7 +11855,7 @@
         <v>900</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>548</v>
@@ -11873,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>13</v>
@@ -11890,7 +11896,7 @@
         <v>901</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1340</v>
+        <v>1349</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>550</v>
@@ -11914,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>13</v>
@@ -11931,7 +11937,7 @@
         <v>902</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1341</v>
+        <v>1350</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>552</v>
@@ -11955,7 +11961,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>17</v>
@@ -11972,7 +11978,7 @@
         <v>903</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1342</v>
+        <v>1351</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>554</v>
@@ -11996,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>13</v>
@@ -12013,7 +12019,7 @@
         <v>904</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>556</v>
@@ -12037,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="K176" s="4" t="s">
         <v>13</v>
@@ -12054,7 +12060,7 @@
         <v>905</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>558</v>
@@ -12078,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K177" s="4" t="s">
         <v>17</v>
@@ -12095,7 +12101,7 @@
         <v>906</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>560</v>
@@ -12119,7 +12125,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="K178" s="4" t="s">
         <v>13</v>
@@ -12136,7 +12142,7 @@
         <v>907</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>562</v>
@@ -12160,7 +12166,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>17</v>
@@ -12177,7 +12183,7 @@
         <v>908</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>564</v>
@@ -12201,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="K180" s="4" t="s">
         <v>13</v>
@@ -12218,7 +12224,7 @@
         <v>909</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1348</v>
+        <v>1258</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>566</v>
@@ -12242,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>17</v>
@@ -12259,7 +12265,7 @@
         <v>910</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1349</v>
+        <v>613</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>567</v>
@@ -12283,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K182" s="4" t="s">
         <v>17</v>
@@ -12300,7 +12306,7 @@
         <v>911</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>569</v>
@@ -12324,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K183" s="4" t="s">
         <v>13</v>
@@ -12341,7 +12347,7 @@
         <v>912</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>571</v>
@@ -12365,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="K184" s="4" t="s">
         <v>13</v>
@@ -12379,10 +12385,10 @@
     </row>
     <row r="185" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>573</v>
@@ -12406,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>17</v>
@@ -12420,10 +12426,10 @@
     </row>
     <row r="186" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>575</v>
@@ -12447,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>13</v>
@@ -12461,10 +12467,10 @@
     </row>
     <row r="187" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>577</v>
@@ -12488,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>17</v>
@@ -12502,10 +12508,10 @@
     </row>
     <row r="188" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>579</v>
@@ -12529,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>17</v>
@@ -12549,10 +12555,10 @@
         <v>582</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>15</v>
@@ -12570,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>13</v>
@@ -12590,10 +12596,10 @@
         <v>584</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>16</v>
@@ -12611,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>13</v>
@@ -12631,10 +12637,10 @@
         <v>516</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>16</v>
@@ -12652,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>17</v>
@@ -12672,10 +12678,10 @@
         <v>587</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>16</v>
@@ -12693,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>17</v>
@@ -12713,10 +12719,10 @@
         <v>589</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>16</v>
@@ -12734,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>13</v>
@@ -12754,10 +12760,10 @@
         <v>591</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1361</v>
+        <v>1255</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>16</v>
@@ -12775,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>17</v>
@@ -12795,10 +12801,10 @@
         <v>593</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>16</v>
@@ -12816,7 +12822,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>17</v>
@@ -12836,10 +12842,10 @@
         <v>595</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>16</v>
@@ -12857,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>13</v>
@@ -12877,10 +12883,10 @@
         <v>597</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>16</v>
@@ -12898,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>13</v>
@@ -12918,10 +12924,10 @@
         <v>599</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>16</v>
@@ -12939,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>13</v>
@@ -12959,10 +12965,10 @@
         <v>601</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
@@ -12980,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>13</v>
@@ -13000,10 +13006,10 @@
         <v>603</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>16</v>
@@ -13021,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>17</v>
@@ -13041,10 +13047,10 @@
         <v>605</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>16</v>
@@ -13062,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>13</v>
@@ -13082,10 +13088,10 @@
         <v>607</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>412</v>
+        <v>1375</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>16</v>
@@ -13103,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>17</v>
@@ -13123,10 +13129,10 @@
         <v>609</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>16</v>
@@ -13144,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>17</v>
@@ -13164,10 +13170,10 @@
         <v>611</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1370</v>
+        <v>580</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>16</v>
@@ -13185,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>13</v>
@@ -13205,10 +13211,10 @@
         <v>613</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>16</v>
@@ -13226,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>13</v>
@@ -13246,10 +13252,10 @@
         <v>615</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>16</v>
@@ -13267,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>17</v>
@@ -13287,10 +13293,10 @@
         <v>617</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
@@ -13308,7 +13314,7 @@
         <v>0</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>17</v>
@@ -13328,10 +13334,10 @@
         <v>619</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1374</v>
+        <v>1257</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>16</v>
@@ -13349,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>17</v>
@@ -13369,10 +13375,10 @@
         <v>621</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>16</v>
@@ -13390,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>17</v>
@@ -13410,10 +13416,10 @@
         <v>623</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>16</v>
@@ -13431,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>13</v>
@@ -13451,10 +13457,10 @@
         <v>625</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>16</v>
@@ -13472,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>17</v>
@@ -13492,10 +13498,10 @@
         <v>627</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>16</v>
@@ -13513,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>13</v>
@@ -13533,10 +13539,10 @@
         <v>629</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>16</v>
@@ -13554,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>17</v>
@@ -13574,10 +13580,10 @@
         <v>631</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>16</v>
@@ -13595,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>17</v>
@@ -13615,10 +13621,10 @@
         <v>633</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>16</v>
@@ -13636,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>17</v>
@@ -13656,10 +13662,10 @@
         <v>635</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>16</v>
@@ -13677,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>17</v>
@@ -13697,10 +13703,10 @@
         <v>637</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1383</v>
+        <v>203</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>16</v>
@@ -13718,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>17</v>
@@ -13738,10 +13744,10 @@
         <v>639</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>16</v>
@@ -13759,7 +13765,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>13</v>
@@ -13779,10 +13785,10 @@
         <v>641</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1319</v>
+        <v>1389</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>16</v>
@@ -13800,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>13</v>
@@ -13820,10 +13826,10 @@
         <v>643</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>16</v>
@@ -13841,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>13</v>
@@ -13861,10 +13867,10 @@
         <v>645</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>551</v>
+        <v>1391</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>16</v>
@@ -13882,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>17</v>
@@ -13902,10 +13908,10 @@
         <v>647</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>16</v>
@@ -13923,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>17</v>
@@ -13943,10 +13949,10 @@
         <v>649</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>16</v>
@@ -13964,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>17</v>
@@ -13984,10 +13990,10 @@
         <v>651</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1388</v>
+        <v>613</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>16</v>
@@ -14005,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>13</v>
@@ -14025,10 +14031,10 @@
         <v>653</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>197</v>
+        <v>1394</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>16</v>
@@ -14046,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>17</v>
@@ -14066,10 +14072,10 @@
         <v>655</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1389</v>
+        <v>1265</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>16</v>
@@ -14087,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>13</v>
@@ -14107,10 +14113,10 @@
         <v>657</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>16</v>
@@ -14128,7 +14134,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>17</v>
@@ -14148,10 +14154,10 @@
         <v>659</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>16</v>
@@ -14169,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>17</v>
@@ -14189,10 +14195,10 @@
         <v>661</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1392</v>
+        <v>1259</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>16</v>
@@ -14210,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="K229" s="1" t="s">
         <v>17</v>
@@ -14230,10 +14236,10 @@
         <v>663</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>16</v>
@@ -14251,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>17</v>
@@ -14271,10 +14277,10 @@
         <v>665</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>404</v>
+        <v>1398</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>16</v>
@@ -14292,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>13</v>
@@ -14312,10 +14318,10 @@
         <v>667</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>16</v>
@@ -14333,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="K232" s="4" t="s">
         <v>17</v>
@@ -14353,10 +14359,10 @@
         <v>669</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>16</v>
@@ -14374,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>13</v>
@@ -14394,10 +14400,10 @@
         <v>671</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1396</v>
+        <v>392</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>16</v>
@@ -14415,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="K234" s="4" t="s">
         <v>17</v>
@@ -14435,10 +14441,10 @@
         <v>673</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>16</v>
@@ -14456,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="K235" s="1" t="s">
         <v>13</v>
@@ -14476,10 +14482,10 @@
         <v>675</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>16</v>
@@ -14497,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="K236" s="4" t="s">
         <v>17</v>
@@ -14517,10 +14523,10 @@
         <v>677</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>16</v>
@@ -14538,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="K237" s="1" t="s">
         <v>13</v>
@@ -14558,10 +14564,10 @@
         <v>679</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>16</v>
@@ -14579,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>17</v>
@@ -14599,10 +14605,10 @@
         <v>681</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>16</v>
@@ -14620,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>13</v>
@@ -14640,10 +14646,10 @@
         <v>683</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>16</v>
@@ -14661,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>13</v>
@@ -14681,10 +14687,10 @@
         <v>685</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>16</v>
@@ -14702,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>13</v>
@@ -14722,10 +14728,10 @@
         <v>687</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>16</v>
@@ -14743,7 +14749,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>13</v>
@@ -14763,10 +14769,10 @@
         <v>689</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>16</v>
@@ -14784,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="K243" s="1" t="s">
         <v>13</v>
@@ -14804,10 +14810,10 @@
         <v>215</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>16</v>
@@ -14825,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="K244" s="1" t="s">
         <v>13</v>
@@ -14845,10 +14851,10 @@
         <v>692</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>16</v>
@@ -14866,7 +14872,7 @@
         <v>0</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>13</v>
@@ -14886,10 +14892,10 @@
         <v>694</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>16</v>
@@ -14907,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K246" s="1" t="s">
         <v>17</v>
@@ -14927,10 +14933,10 @@
         <v>696</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>16</v>
@@ -14948,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>13</v>
@@ -14968,10 +14974,10 @@
         <v>698</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>16</v>
@@ -14989,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>18</v>
@@ -15006,10 +15012,10 @@
         <v>700</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>16</v>
@@ -15027,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K249" s="1" t="s">
         <v>17</v>
@@ -15047,10 +15053,10 @@
         <v>702</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>16</v>
@@ -15068,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>13</v>
@@ -15088,10 +15094,10 @@
         <v>704</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>16</v>
@@ -15109,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="K251" s="1" t="s">
         <v>17</v>
@@ -15129,10 +15135,10 @@
         <v>706</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>16</v>
@@ -15150,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>17</v>
@@ -15170,10 +15176,10 @@
         <v>708</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>16</v>
@@ -15191,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>13</v>
@@ -15211,10 +15217,10 @@
         <v>710</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>16</v>
@@ -15232,7 +15238,7 @@
         <v>0</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="K254" s="1" t="s">
         <v>17</v>
@@ -15252,10 +15258,10 @@
         <v>712</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1417</v>
+        <v>1387</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>16</v>
@@ -15273,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>17</v>
@@ -15293,10 +15299,10 @@
         <v>714</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>16</v>
@@ -15314,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="K256" s="1" t="s">
         <v>17</v>
@@ -15334,10 +15340,10 @@
         <v>716</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>16</v>
@@ -15355,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="K257" s="1" t="s">
         <v>17</v>
@@ -15375,10 +15381,10 @@
         <v>718</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -15396,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>13</v>
@@ -15416,10 +15422,10 @@
         <v>720</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>16</v>
@@ -15437,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>17</v>
@@ -15457,10 +15463,10 @@
         <v>722</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>16</v>
@@ -15478,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>17</v>
@@ -15498,10 +15504,10 @@
         <v>724</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>16</v>
@@ -15519,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="K261" s="1" t="s">
         <v>13</v>
@@ -15539,10 +15545,10 @@
         <v>726</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>16</v>
@@ -15560,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>17</v>
@@ -15580,10 +15586,10 @@
         <v>728</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>16</v>
@@ -15601,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K263" s="1" t="s">
         <v>13</v>
@@ -15621,10 +15627,10 @@
         <v>730</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>272</v>
+        <v>1429</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>16</v>
@@ -15642,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="K264" s="1" t="s">
         <v>13</v>
@@ -15662,10 +15668,10 @@
         <v>732</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>16</v>
@@ -15683,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>13</v>
@@ -15703,10 +15709,10 @@
         <v>734</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>16</v>
@@ -15724,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>17</v>
@@ -15744,10 +15750,10 @@
         <v>736</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>16</v>
@@ -15765,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>13</v>
@@ -15785,10 +15791,10 @@
         <v>738</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>16</v>
@@ -15806,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K268" s="1" t="s">
         <v>17</v>
@@ -15826,10 +15832,10 @@
         <v>740</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>16</v>
@@ -15847,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>13</v>
@@ -15867,10 +15873,10 @@
         <v>742</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1431</v>
+        <v>1254</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>16</v>
@@ -15888,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>17</v>
@@ -15908,10 +15914,10 @@
         <v>744</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>16</v>
@@ -15929,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>17</v>
@@ -15949,10 +15955,10 @@
         <v>746</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>16</v>
@@ -15970,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K272" s="1" t="s">
         <v>17</v>
@@ -15990,10 +15996,10 @@
         <v>748</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>16</v>
@@ -16011,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>13</v>
@@ -16031,10 +16037,10 @@
         <v>750</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>16</v>
@@ -16052,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>17</v>
@@ -16072,10 +16078,10 @@
         <v>752</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>16</v>
@@ -16093,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>17</v>
@@ -16113,10 +16119,10 @@
         <v>754</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>16</v>
@@ -16134,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>17</v>
@@ -16154,10 +16160,10 @@
         <v>756</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>16</v>
@@ -16175,7 +16181,7 @@
         <v>0</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>17</v>
@@ -16195,10 +16201,10 @@
         <v>758</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>16</v>
@@ -16216,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>13</v>
@@ -16236,10 +16242,10 @@
         <v>760</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>16</v>
@@ -16257,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>13</v>
@@ -16277,10 +16283,10 @@
         <v>762</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1441</v>
+        <v>1359</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>16</v>
@@ -16298,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>13</v>
@@ -16318,10 +16324,10 @@
         <v>764</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>16</v>
@@ -16339,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>17</v>
@@ -16359,10 +16365,10 @@
         <v>766</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>16</v>
@@ -16380,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>13</v>
@@ -16400,10 +16406,10 @@
         <v>768</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>16</v>
@@ -16421,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>13</v>
@@ -16441,10 +16447,10 @@
         <v>770</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>16</v>
@@ -16462,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>13</v>
@@ -16482,10 +16488,10 @@
         <v>772</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>16</v>
@@ -16503,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>13</v>
@@ -16523,10 +16529,10 @@
         <v>774</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1447</v>
+        <v>623</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>16</v>
@@ -16544,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>17</v>
@@ -16564,10 +16570,10 @@
         <v>776</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>16</v>
@@ -16585,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>17</v>
@@ -16605,10 +16611,10 @@
         <v>778</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>16</v>
@@ -16626,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>17</v>
@@ -16646,10 +16652,10 @@
         <v>780</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>16</v>
@@ -16667,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>13</v>
@@ -16687,10 +16693,10 @@
         <v>782</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>712</v>
+        <v>1316</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>16</v>
@@ -16708,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>17</v>
@@ -16728,10 +16734,10 @@
         <v>784</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>766</v>
+        <v>1452</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>16</v>
@@ -16749,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>17</v>
@@ -16769,10 +16775,10 @@
         <v>786</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1451</v>
+        <v>1325</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>16</v>
@@ -16790,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>13</v>
@@ -16810,10 +16816,10 @@
         <v>788</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>1353</v>
+        <v>1453</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>16</v>
@@ -16831,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>13</v>
@@ -16851,10 +16857,10 @@
         <v>790</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>16</v>
@@ -16872,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>13</v>
@@ -16892,10 +16898,10 @@
         <v>792</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>16</v>
@@ -16913,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>17</v>
@@ -16933,10 +16939,10 @@
         <v>794</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>16</v>
@@ -16954,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>17</v>
@@ -16974,10 +16980,10 @@
         <v>796</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>16</v>
@@ -16995,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>17</v>
@@ -17015,10 +17021,10 @@
         <v>798</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>16</v>
@@ -17036,7 +17042,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>13</v>
@@ -17056,10 +17062,10 @@
         <v>800</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>16</v>
@@ -17077,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>17</v>
@@ -17097,10 +17103,10 @@
         <v>802</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>16</v>
@@ -17118,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>13</v>
@@ -17138,10 +17144,10 @@
         <v>804</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>16</v>

--- a/purple_green_orange/Condition_File_purple_green_orange.xlsx
+++ b/purple_green_orange/Condition_File_purple_green_orange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/purple_green_orange/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40830C5E-1CF9-154F-8CD6-F17CAA3566CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97EC131-FF04-034A-811F-522B28CAE7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{50BE362F-E7B0-5840-BBD3-B85E4770FAD8}"/>
   </bookViews>
@@ -4819,8 +4819,8 @@
   <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C189" sqref="C189:D301"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5878,7 +5878,7 @@
         <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1">
         <v>-0.25</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>17</v>
@@ -5960,7 +5960,7 @@
         <v>156</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1">
         <v>-0.25</v>
@@ -6001,7 +6001,7 @@
         <v>158</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1">
         <v>-0.25</v>
@@ -12547,7 +12547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>581</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>583</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>585</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>586</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>588</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>590</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>592</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>594</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>596</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>598</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>600</v>
       </c>
@@ -12998,7 +12998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>602</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>604</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>606</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>608</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>610</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>614</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>616</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>618</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>620</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>622</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>624</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>626</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>628</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>630</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>632</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>634</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>636</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>638</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>640</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>642</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>644</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>646</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>648</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>650</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>652</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>654</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>656</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>658</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>660</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>662</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>664</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>666</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>668</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>670</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>672</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>674</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>676</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>678</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>680</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>682</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>684</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>686</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>688</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>690</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>691</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>693</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>695</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>697</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>699</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>701</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>703</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>705</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>707</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>709</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>711</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>713</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>715</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>717</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>719</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>721</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>723</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>725</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>727</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>729</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>731</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>733</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>735</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>737</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>739</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>741</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>743</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>745</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>747</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>749</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>751</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>753</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>755</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>757</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>759</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>761</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>763</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>765</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>767</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>769</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>771</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>773</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>775</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>777</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>779</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>781</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>783</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>785</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>787</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>789</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>791</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>793</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>795</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>797</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>799</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>801</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>803</v>
       </c>
